--- a/Design/UnitAttribute.xlsx
+++ b/Design/UnitAttribute.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,134 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>属性编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Att</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisMdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriEnhs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisCriProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisCriEnhs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +164,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +465,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>